--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51579221044617</v>
+        <v>1.742267333333333</v>
       </c>
       <c r="H2">
-        <v>1.51579221044617</v>
+        <v>5.226802</v>
       </c>
       <c r="I2">
-        <v>0.02752246650146847</v>
+        <v>0.02937931807530601</v>
       </c>
       <c r="J2">
-        <v>0.02752246650146847</v>
+        <v>0.029379318075306</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N2">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P2">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q2">
-        <v>5.28648138897639</v>
+        <v>7.268205600106889</v>
       </c>
       <c r="R2">
-        <v>5.28648138897639</v>
+        <v>65.41385040096199</v>
       </c>
       <c r="S2">
-        <v>0.002585878830312118</v>
+        <v>0.00316685849004058</v>
       </c>
       <c r="T2">
-        <v>0.002585878830312118</v>
+        <v>0.00316685849004058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51579221044617</v>
+        <v>1.742267333333333</v>
       </c>
       <c r="H3">
-        <v>1.51579221044617</v>
+        <v>5.226802</v>
       </c>
       <c r="I3">
-        <v>0.02752246650146847</v>
+        <v>0.02937931807530601</v>
       </c>
       <c r="J3">
-        <v>0.02752246650146847</v>
+        <v>0.029379318075306</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N3">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P3">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q3">
-        <v>30.90413648560319</v>
+        <v>35.53170533280822</v>
       </c>
       <c r="R3">
-        <v>30.90413648560319</v>
+        <v>319.785347995274</v>
       </c>
       <c r="S3">
-        <v>0.01511673766105346</v>
+        <v>0.0154816592828867</v>
       </c>
       <c r="T3">
-        <v>0.01511673766105346</v>
+        <v>0.0154816592828867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.51579221044617</v>
+        <v>1.742267333333333</v>
       </c>
       <c r="H4">
-        <v>1.51579221044617</v>
+        <v>5.226802</v>
       </c>
       <c r="I4">
-        <v>0.02752246650146847</v>
+        <v>0.02937931807530601</v>
       </c>
       <c r="J4">
-        <v>0.02752246650146847</v>
+        <v>0.029379318075306</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N4">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P4">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q4">
-        <v>20.07536227622957</v>
+        <v>24.62808587647956</v>
       </c>
       <c r="R4">
-        <v>20.07536227622957</v>
+        <v>221.652772888316</v>
       </c>
       <c r="S4">
-        <v>0.009819850010102889</v>
+        <v>0.01073080030237873</v>
       </c>
       <c r="T4">
-        <v>0.009819850010102889</v>
+        <v>0.01073080030237873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.4574661619871</v>
+        <v>37.52183533333334</v>
       </c>
       <c r="H5">
-        <v>37.4574661619871</v>
+        <v>112.565506</v>
       </c>
       <c r="I5">
-        <v>0.6801208309216269</v>
+        <v>0.632719166534674</v>
       </c>
       <c r="J5">
-        <v>0.6801208309216269</v>
+        <v>0.6327191665346739</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N5">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P5">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q5">
-        <v>130.6367695907815</v>
+        <v>156.5296028217762</v>
       </c>
       <c r="R5">
-        <v>130.6367695907815</v>
+        <v>1408.766425395986</v>
       </c>
       <c r="S5">
-        <v>0.06390088833937488</v>
+        <v>0.06820212978448655</v>
       </c>
       <c r="T5">
-        <v>0.06390088833937488</v>
+        <v>0.06820212978448655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.4574661619871</v>
+        <v>37.52183533333334</v>
       </c>
       <c r="H6">
-        <v>37.4574661619871</v>
+        <v>112.565506</v>
       </c>
       <c r="I6">
-        <v>0.6801208309216269</v>
+        <v>0.632719166534674</v>
       </c>
       <c r="J6">
-        <v>0.6801208309216269</v>
+        <v>0.6327191665346739</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N6">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P6">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q6">
-        <v>763.6868950092954</v>
+        <v>765.2182711016136</v>
       </c>
       <c r="R6">
-        <v>763.6868950092954</v>
+        <v>6886.964439914523</v>
       </c>
       <c r="S6">
-        <v>0.3735569331444685</v>
+        <v>0.333416266944441</v>
       </c>
       <c r="T6">
-        <v>0.3735569331444685</v>
+        <v>0.333416266944441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.4574661619871</v>
+        <v>37.52183533333334</v>
       </c>
       <c r="H7">
-        <v>37.4574661619871</v>
+        <v>112.565506</v>
       </c>
       <c r="I7">
-        <v>0.6801208309216269</v>
+        <v>0.632719166534674</v>
       </c>
       <c r="J7">
-        <v>0.6801208309216269</v>
+        <v>0.6327191665346739</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N7">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P7">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q7">
-        <v>496.0918772172342</v>
+        <v>530.3956316878609</v>
       </c>
       <c r="R7">
-        <v>496.0918772172342</v>
+        <v>4773.560685190749</v>
       </c>
       <c r="S7">
-        <v>0.2426630094377835</v>
+        <v>0.2311007698057464</v>
       </c>
       <c r="T7">
-        <v>0.2426630094377835</v>
+        <v>0.2311007698057464</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.1014643223984</v>
+        <v>20.03840833333333</v>
       </c>
       <c r="H8">
-        <v>16.1014643223984</v>
+        <v>60.115225</v>
       </c>
       <c r="I8">
-        <v>0.2923567025769046</v>
+        <v>0.3379015153900201</v>
       </c>
       <c r="J8">
-        <v>0.2923567025769046</v>
+        <v>0.33790151539002</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.48760295279544</v>
+        <v>4.171693666666666</v>
       </c>
       <c r="N8">
-        <v>3.48760295279544</v>
+        <v>12.515081</v>
       </c>
       <c r="O8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="P8">
-        <v>0.09395519947945608</v>
+        <v>0.1077921033402881</v>
       </c>
       <c r="Q8">
-        <v>56.15551451512709</v>
+        <v>83.59410113424721</v>
       </c>
       <c r="R8">
-        <v>56.15551451512709</v>
+        <v>752.3469102082249</v>
       </c>
       <c r="S8">
-        <v>0.02746843230976908</v>
+        <v>0.036423115065761</v>
       </c>
       <c r="T8">
-        <v>0.02746843230976908</v>
+        <v>0.036423115065761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.1014643223984</v>
+        <v>20.03840833333333</v>
       </c>
       <c r="H9">
-        <v>16.1014643223984</v>
+        <v>60.115225</v>
       </c>
       <c r="I9">
-        <v>0.2923567025769046</v>
+        <v>0.3379015153900201</v>
       </c>
       <c r="J9">
-        <v>0.2923567025769046</v>
+        <v>0.33790151539002</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3881087873559</v>
+        <v>20.39394566666667</v>
       </c>
       <c r="N9">
-        <v>20.3881087873559</v>
+        <v>61.181837</v>
       </c>
       <c r="O9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327285</v>
       </c>
       <c r="P9">
-        <v>0.5492508333236377</v>
+        <v>0.5269577477327286</v>
       </c>
       <c r="Q9">
-        <v>328.2784062407883</v>
+        <v>408.6622107964806</v>
       </c>
       <c r="R9">
-        <v>328.2784062407883</v>
+        <v>3677.959897168325</v>
       </c>
       <c r="S9">
-        <v>0.1605771625181157</v>
+        <v>0.1780598215054009</v>
       </c>
       <c r="T9">
-        <v>0.1605771625181157</v>
+        <v>0.1780598215054009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.1014643223984</v>
+        <v>20.03840833333333</v>
       </c>
       <c r="H10">
-        <v>16.1014643223984</v>
+        <v>60.115225</v>
       </c>
       <c r="I10">
-        <v>0.2923567025769046</v>
+        <v>0.3379015153900201</v>
       </c>
       <c r="J10">
-        <v>0.2923567025769046</v>
+        <v>0.33790151539002</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2441387004624</v>
+        <v>14.13565266666667</v>
       </c>
       <c r="N10">
-        <v>13.2441387004624</v>
+        <v>42.406958</v>
       </c>
       <c r="O10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="P10">
-        <v>0.3567939671969061</v>
+        <v>0.3652501489269833</v>
       </c>
       <c r="Q10">
-        <v>213.2500267663912</v>
+        <v>283.2559801928389</v>
       </c>
       <c r="R10">
-        <v>213.2500267663912</v>
+        <v>2549.30382173555</v>
       </c>
       <c r="S10">
-        <v>0.1043111077490197</v>
+        <v>0.1234185788188581</v>
       </c>
       <c r="T10">
-        <v>0.1043111077490197</v>
+        <v>0.1234185788188581</v>
       </c>
     </row>
   </sheetData>
